--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H2">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I2">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J2">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N2">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O2">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P2">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q2">
-        <v>73.24088749257976</v>
+        <v>108.565873700692</v>
       </c>
       <c r="R2">
-        <v>73.24088749257976</v>
+        <v>977.0928633062281</v>
       </c>
       <c r="S2">
-        <v>0.01378364678853464</v>
+        <v>0.01758326476022955</v>
       </c>
       <c r="T2">
-        <v>0.01378364678853464</v>
+        <v>0.02037289302033838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H3">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I3">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J3">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N3">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P3">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q3">
-        <v>457.0381810217611</v>
+        <v>489.2527277481481</v>
       </c>
       <c r="R3">
-        <v>457.0381810217611</v>
+        <v>4403.274549733333</v>
       </c>
       <c r="S3">
-        <v>0.08601278700666411</v>
+        <v>0.07923908271928141</v>
       </c>
       <c r="T3">
-        <v>0.08601278700666411</v>
+        <v>0.0918105583509731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H4">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I4">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J4">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N4">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O4">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P4">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q4">
-        <v>54.81952279188137</v>
+        <v>60.48073623235202</v>
       </c>
       <c r="R4">
-        <v>54.81952279188137</v>
+        <v>544.3266260911681</v>
       </c>
       <c r="S4">
-        <v>0.01031681844865507</v>
+        <v>0.009795424306158143</v>
       </c>
       <c r="T4">
-        <v>0.01031681844865507</v>
+        <v>0.01134949249752279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H5">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I5">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J5">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N5">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O5">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P5">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q5">
-        <v>77.22959056955202</v>
+        <v>109.771723926456</v>
       </c>
       <c r="R5">
-        <v>77.22959056955202</v>
+        <v>987.9455153381041</v>
       </c>
       <c r="S5">
-        <v>0.01453430501018572</v>
+        <v>0.01777856355033781</v>
       </c>
       <c r="T5">
-        <v>0.01453430501018572</v>
+        <v>0.02059917644449955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H6">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I6">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J6">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N6">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O6">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P6">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q6">
-        <v>375.262143286379</v>
+        <v>414.573321485028</v>
       </c>
       <c r="R6">
-        <v>375.262143286379</v>
+        <v>2487.439928910168</v>
       </c>
       <c r="S6">
-        <v>0.07062285853229132</v>
+        <v>0.06714405020398731</v>
       </c>
       <c r="T6">
-        <v>0.07062285853229132</v>
+        <v>0.0518644127588133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H7">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I7">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J7">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N7">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O7">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P7">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q7">
-        <v>93.45601030031855</v>
+        <v>151.0986477477416</v>
       </c>
       <c r="R7">
-        <v>93.45601030031855</v>
+        <v>1359.887829729675</v>
       </c>
       <c r="S7">
-        <v>0.01758805334487179</v>
+        <v>0.02447184771511003</v>
       </c>
       <c r="T7">
-        <v>0.01758805334487179</v>
+        <v>0.02835436662693123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H8">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I8">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J8">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N8">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P8">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q8">
-        <v>583.1846993598477</v>
+        <v>680.9269160716749</v>
       </c>
       <c r="R8">
-        <v>583.1846993598477</v>
+        <v>6128.342244645075</v>
       </c>
       <c r="S8">
-        <v>0.1097530653116171</v>
+        <v>0.1102825210126647</v>
       </c>
       <c r="T8">
-        <v>0.1097530653116171</v>
+        <v>0.1277791145866193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H9">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I9">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J9">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N9">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O9">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P9">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q9">
-        <v>69.95018850933039</v>
+        <v>84.17523065019999</v>
       </c>
       <c r="R9">
-        <v>69.95018850933039</v>
+        <v>757.5770758518</v>
       </c>
       <c r="S9">
-        <v>0.01316435019034562</v>
+        <v>0.01363297062257623</v>
       </c>
       <c r="T9">
-        <v>0.01316435019034562</v>
+        <v>0.01579587498854994</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H10">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I10">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J10">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N10">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O10">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P10">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q10">
-        <v>98.54563016441696</v>
+        <v>152.77691304685</v>
       </c>
       <c r="R10">
-        <v>98.54563016441696</v>
+        <v>1374.99221742165</v>
       </c>
       <c r="S10">
-        <v>0.01854589977323122</v>
+        <v>0.02474365857137857</v>
       </c>
       <c r="T10">
-        <v>0.01854589977323122</v>
+        <v>0.02866930094499091</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H11">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I11">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J11">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N11">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O11">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P11">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q11">
-        <v>478.8377630165191</v>
+        <v>576.9904126721749</v>
       </c>
       <c r="R11">
-        <v>478.8377630165191</v>
+        <v>3461.942476033049</v>
       </c>
       <c r="S11">
-        <v>0.09011538254640121</v>
+        <v>0.09344902633122999</v>
       </c>
       <c r="T11">
-        <v>0.09011538254640121</v>
+        <v>0.0721832963431257</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H12">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I12">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J12">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N12">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O12">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P12">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q12">
-        <v>119.8469476429974</v>
+        <v>174.0680227384913</v>
       </c>
       <c r="R12">
-        <v>119.8469476429974</v>
+        <v>1566.612204646422</v>
       </c>
       <c r="S12">
-        <v>0.02255472389193048</v>
+        <v>0.02819195411753998</v>
       </c>
       <c r="T12">
-        <v>0.02255472389193048</v>
+        <v>0.03266467707237277</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H13">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I13">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J13">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N13">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P13">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q13">
-        <v>747.8695688568105</v>
+        <v>784.4385352005019</v>
       </c>
       <c r="R13">
-        <v>747.8695688568105</v>
+        <v>7059.946816804518</v>
       </c>
       <c r="S13">
-        <v>0.1407461096380124</v>
+        <v>0.1270472016886569</v>
       </c>
       <c r="T13">
-        <v>0.1407461096380124</v>
+        <v>0.1472035531416619</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H14">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I14">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J14">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N14">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O14">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P14">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q14">
-        <v>89.70334334791248</v>
+        <v>96.971191875248</v>
       </c>
       <c r="R14">
-        <v>89.70334334791248</v>
+        <v>872.740726877232</v>
       </c>
       <c r="S14">
-        <v>0.01688181619295017</v>
+        <v>0.01570539694230488</v>
       </c>
       <c r="T14">
-        <v>0.01688181619295017</v>
+        <v>0.01819709684809124</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H15">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I15">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J15">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N15">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O15">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P15">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q15">
-        <v>126.3738195201001</v>
+        <v>176.001410803844</v>
       </c>
       <c r="R15">
-        <v>126.3738195201001</v>
+        <v>1584.012697234596</v>
       </c>
       <c r="S15">
-        <v>0.02378305549287015</v>
+        <v>0.02850508450629443</v>
       </c>
       <c r="T15">
-        <v>0.02378305549287015</v>
+        <v>0.03302748636851329</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H16">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I16">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J16">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N16">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O16">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P16">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q16">
-        <v>614.0562188490426</v>
+        <v>664.7020457826219</v>
       </c>
       <c r="R16">
-        <v>614.0562188490426</v>
+        <v>3988.212274695731</v>
       </c>
       <c r="S16">
-        <v>0.115562963785438</v>
+        <v>0.1076547506068435</v>
       </c>
       <c r="T16">
-        <v>0.115562963785438</v>
+        <v>0.08315629462264502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H17">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I17">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J17">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N17">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O17">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P17">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q17">
-        <v>63.39518274679571</v>
+        <v>94.411228536108</v>
       </c>
       <c r="R17">
-        <v>63.39518274679571</v>
+        <v>849.7010568249721</v>
       </c>
       <c r="S17">
-        <v>0.0119307239028878</v>
+        <v>0.01529078679240938</v>
       </c>
       <c r="T17">
-        <v>0.0119307239028878</v>
+        <v>0.0177167077767697</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H18">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I18">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J18">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N18">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P18">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q18">
-        <v>395.5989611823462</v>
+        <v>425.464738751052</v>
       </c>
       <c r="R18">
-        <v>395.5989611823462</v>
+        <v>3829.182648759469</v>
       </c>
       <c r="S18">
-        <v>0.07445016762530526</v>
+        <v>0.06890801770938043</v>
       </c>
       <c r="T18">
-        <v>0.07445016762530526</v>
+        <v>0.07984044443282688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H19">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I19">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J19">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N19">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O19">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P19">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q19">
-        <v>47.45018506002598</v>
+        <v>52.59535446844801</v>
       </c>
       <c r="R19">
-        <v>47.45018506002598</v>
+        <v>473.3581902160321</v>
       </c>
       <c r="S19">
-        <v>0.008929938089352944</v>
+        <v>0.008518312534622461</v>
       </c>
       <c r="T19">
-        <v>0.008929938089352944</v>
+        <v>0.009869763798028897</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H20">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I20">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J20">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N20">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O20">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P20">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q20">
-        <v>66.84768815933568</v>
+        <v>95.45986193594402</v>
       </c>
       <c r="R20">
-        <v>66.84768815933568</v>
+        <v>859.138757423496</v>
       </c>
       <c r="S20">
-        <v>0.0125804718342844</v>
+        <v>0.01546062283827928</v>
       </c>
       <c r="T20">
-        <v>0.0125804718342844</v>
+        <v>0.01791348872960678</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H21">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I21">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J21">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N21">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O21">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P21">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q21">
-        <v>324.816000543473</v>
+        <v>360.521914166172</v>
       </c>
       <c r="R21">
-        <v>324.816000543473</v>
+        <v>2163.131484997032</v>
       </c>
       <c r="S21">
-        <v>0.0611290929975323</v>
+        <v>0.05838991620999729</v>
       </c>
       <c r="T21">
-        <v>0.0611290929975323</v>
+        <v>0.04510241348365944</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H22">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I22">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J22">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N22">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O22">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P22">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q22">
-        <v>25.13513344925561</v>
+        <v>38.66031610983166</v>
       </c>
       <c r="R22">
-        <v>25.13513344925561</v>
+        <v>231.96189665899</v>
       </c>
       <c r="S22">
-        <v>0.004730333196499318</v>
+        <v>0.006261401955345797</v>
       </c>
       <c r="T22">
-        <v>0.004730333196499318</v>
+        <v>0.004836525864530144</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H23">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I23">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J23">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N23">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O23">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P23">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q23">
-        <v>156.8483952703449</v>
+        <v>174.222934588885</v>
       </c>
       <c r="R23">
-        <v>156.8483952703449</v>
+        <v>1045.33760753331</v>
       </c>
       <c r="S23">
-        <v>0.02951825071718217</v>
+        <v>0.02821704354930266</v>
       </c>
       <c r="T23">
-        <v>0.02951825071718217</v>
+        <v>0.02179583133618497</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H24">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I24">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J24">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N24">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O24">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P24">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q24">
-        <v>18.81320759716417</v>
+        <v>21.53719489924</v>
       </c>
       <c r="R24">
-        <v>18.81320759716417</v>
+        <v>129.22316939544</v>
       </c>
       <c r="S24">
-        <v>0.003540571630907112</v>
+        <v>0.003488151360988757</v>
       </c>
       <c r="T24">
-        <v>0.003540571630907112</v>
+        <v>0.002694370110261743</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H25">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I25">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J25">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N25">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O25">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P25">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q25">
-        <v>26.50399430773867</v>
+        <v>39.08971946947</v>
       </c>
       <c r="R25">
-        <v>26.50399430773867</v>
+        <v>234.53831681682</v>
       </c>
       <c r="S25">
-        <v>0.004987947422950252</v>
+        <v>0.006330947869767014</v>
       </c>
       <c r="T25">
-        <v>0.004987947422950252</v>
+        <v>0.004890245561216194</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H26">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I26">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J26">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N26">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O26">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P26">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q26">
-        <v>128.7841310075936</v>
+        <v>147.629592181985</v>
       </c>
       <c r="R26">
-        <v>128.7841310075936</v>
+        <v>590.5183687279399</v>
       </c>
       <c r="S26">
-        <v>0.02423666662909955</v>
+        <v>0.02391000152531366</v>
       </c>
       <c r="T26">
-        <v>0.02423666662909955</v>
+        <v>0.01231261429126679</v>
       </c>
     </row>
   </sheetData>
